--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLH.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF717FB5-E52C-4AAE-8EA8-238F5BDAA985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E2B00-59AA-4D9A-A387-E173825851FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -41,25 +41,25 @@
     <t>Đến:</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO TỪNG THỊ TRƯỜNG</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
     <t>Đối tác</t>
   </si>
   <si>
-    <t>Doanh số chi quầy</t>
-  </si>
-  <si>
-    <t>Doanh số chi nhà</t>
-  </si>
-  <si>
-    <t>Tổng doanh số</t>
-  </si>
-  <si>
-    <t>Doanh số CK</t>
+    <t>Hồ sơ chi quầy</t>
+  </si>
+  <si>
+    <t>Hồ sơ chi nhà</t>
+  </si>
+  <si>
+    <t>Hồ sơ CK</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO ĐỐI TÁC - LOẠI HÌNH</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -561,19 +561,19 @@
     </row>
     <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>7</v>
